--- a/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="4395"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13230" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Tasks" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N13"/>
+  <oleSize ref="A1:L14"/>
 </workbook>
 </file>
 
@@ -509,7 +509,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
